--- a/Results/model.xlsx
+++ b/Results/model.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">names</t>
   </si>
@@ -26,6 +26,9 @@
     <t xml:space="preserve">Chi.full</t>
   </si>
   <si>
+    <t xml:space="preserve">rep("", nrow(combined.table))</t>
+  </si>
+  <si>
     <t xml:space="preserve">coef.final</t>
   </si>
   <si>
@@ -44,142 +47,169 @@
     <t xml:space="preserve">Chi.simple</t>
   </si>
   <si>
-    <t xml:space="preserve">(Intercept)</t>
+    <t xml:space="preserve">Intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.002; 224.595]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.002; 149.908]</t>
   </si>
   <si>
     <t xml:space="preserve">0.000</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.000; 0.001]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
+    <t xml:space="preserve">[0.000; 0.004]</t>
   </si>
   <si>
     <t xml:space="preserve">dPTH</t>
   </si>
   <si>
-    <t xml:space="preserve">1.099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.062; 1.147]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.064; 1.144]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.071; 1.149]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSKnietgezienYes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.757; 13.785]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.028; 14.605]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">dCorrCa24u</t>
+    <t xml:space="preserve">1.076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.033; 1.098]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8</t>
   </si>
   <si>
     <t xml:space="preserve">1.077</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.015; 1.147]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.011; 1.140]</t>
+    <t xml:space="preserve">[1.035; 1.098]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.042; 1.103]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSKgezien=Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.322; 1.745]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.339; 1.750]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CorrCa24u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.117; 13.698]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.038; 3.567]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9</t>
   </si>
   <si>
     <t xml:space="preserve">Age_Years</t>
   </si>
   <si>
-    <t xml:space="preserve">1.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.982; 1.034]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SexMale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.477; 2.476]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surgery_typetotal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.180; 2.889]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHKDYes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.541; 2.852]</t>
+    <t xml:space="preserve">0.329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.376; 0.393]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex=Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.479; 1.946]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surgery_type=total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.433; 3.904]</t>
   </si>
   <si>
     <t xml:space="preserve">0.3</t>
   </si>
   <si>
+    <t xml:space="preserve">CHKD=Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.617; 2.563]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">C-index</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.852; 0.923]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.849; 0.922]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.821; 0.902]</t>
+    <t xml:space="preserve">0.879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.844; 0.913]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.841; 0.913]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.808; 0.890]</t>
   </si>
 </sst>
 </file>
@@ -537,298 +567,358 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Results/model.xlsx
+++ b/Results/model.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">names</t>
   </si>
@@ -50,19 +50,19 @@
     <t xml:space="preserve">Intercept</t>
   </si>
   <si>
-    <t xml:space="preserve">0.735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.002; 224.595]</t>
+    <t xml:space="preserve">1.394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.003; 642.516]</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">0.587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.002; 149.908]</t>
+    <t xml:space="preserve">1.068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.003; 427.952]</t>
   </si>
   <si>
     <t xml:space="preserve">0.000</t>
@@ -74,94 +74,91 @@
     <t xml:space="preserve">dPTH</t>
   </si>
   <si>
-    <t xml:space="preserve">1.076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.033; 1.098]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.035; 1.098]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.042; 1.103]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5</t>
+    <t xml:space="preserve">1.085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.034; 1.114]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.035; 1.113]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.042; 1.114]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2</t>
   </si>
   <si>
     <t xml:space="preserve">BSKgezien=Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">0.715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.322; 1.745]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.339; 1.750]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8</t>
+    <t xml:space="preserve">0.686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.289; 1.791]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.306; 1.755]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9</t>
   </si>
   <si>
     <t xml:space="preserve">CorrCa24u</t>
   </si>
   <si>
-    <t xml:space="preserve">1.313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.117; 13.698]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.038; 3.567]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9</t>
+    <t xml:space="preserve">1.157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.091; 14.113]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.028; 3.539]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2</t>
   </si>
   <si>
     <t xml:space="preserve">Age_Years</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.376; 0.393]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8</t>
+    <t xml:space="preserve">0.287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.329; 0.344]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
   </si>
   <si>
     <t xml:space="preserve">Sex=Male</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.479; 1.946]</t>
+    <t xml:space="preserve">0.999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.480; 2.081]</t>
   </si>
   <si>
     <t xml:space="preserve">0.0</t>
@@ -170,46 +167,46 @@
     <t xml:space="preserve">surgery_type=total</t>
   </si>
   <si>
-    <t xml:space="preserve">1.357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.433; 3.904]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3</t>
+    <t xml:space="preserve">1.484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.420; 4.745]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4</t>
   </si>
   <si>
     <t xml:space="preserve">CHKD=Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">1.306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.617; 2.563]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
+    <t xml:space="preserve">1.379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.626; 2.804]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7</t>
   </si>
   <si>
     <t xml:space="preserve">C-index</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.844; 0.913]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.841; 0.913]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.808; 0.890]</t>
+    <t xml:space="preserve">0.888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.853; 0.924]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.850; 0.925]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.813; 0.900]</t>
   </si>
 </sst>
 </file>
@@ -634,51 +631,51 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -695,28 +692,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>40</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -733,16 +730,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -771,16 +768,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -809,16 +806,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -847,16 +844,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -885,37 +882,37 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>62</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
         <v>63</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>64</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
